--- a/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002523371287959411</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>3084</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1067</v>
+        <v>1081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6475</v>
+        <v>6301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009757527109697463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003375509909792687</v>
+        <v>0.003420951647829947</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02048531352679533</v>
+        <v>0.01993539312735841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>3889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1587</v>
+        <v>1533</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7848</v>
+        <v>7877</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006124585032738543</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002498826687815048</v>
+        <v>0.002414464111095354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01236128040060277</v>
+        <v>0.01240721999657314</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7486</v>
+        <v>7886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20949</v>
+        <v>22150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04177878531656665</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02347808678066568</v>
+        <v>0.02473242865340595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06570162664158592</v>
+        <v>0.06947083927615763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -833,19 +833,19 @@
         <v>26098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19763</v>
+        <v>19626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34527</v>
+        <v>33846</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08257342640197639</v>
+        <v>0.08257342640197637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06252787470632451</v>
+        <v>0.06209666860267383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1092426873956006</v>
+        <v>0.1070863251959475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -854,19 +854,19 @@
         <v>39419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30902</v>
+        <v>29523</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49782</v>
+        <v>50302</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06208664511530857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04867130520496454</v>
+        <v>0.04649925671687898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07840835991637611</v>
+        <v>0.07922675314232348</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>17251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11212</v>
+        <v>10597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25867</v>
+        <v>26324</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05410413777735268</v>
+        <v>0.05410413777735269</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03516410210006426</v>
+        <v>0.03323509151849778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08112764129085613</v>
+        <v>0.0825608433980185</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -904,19 +904,19 @@
         <v>33594</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26529</v>
+        <v>25249</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42722</v>
+        <v>41902</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1062897542160828</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0839375095445012</v>
+        <v>0.07988506878710025</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.135170620307856</v>
+        <v>0.1325745833539611</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -925,19 +925,19 @@
         <v>50845</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41145</v>
+        <v>41004</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63310</v>
+        <v>62705</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08008250537543617</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06480471427259131</v>
+        <v>0.06458344911951051</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09971520140425567</v>
+        <v>0.0987629925459928</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>287469</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>275891</v>
+        <v>275462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>296467</v>
+        <v>296012</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9015937056181212</v>
+        <v>0.9015937056181214</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8652821351918105</v>
+        <v>0.8639358704020808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9298168881439565</v>
+        <v>0.9283893863970248</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>419</v>
@@ -975,19 +975,19 @@
         <v>253285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>241467</v>
+        <v>242883</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>262457</v>
+        <v>263979</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8013792922722432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7639871561189374</v>
+        <v>0.7684683286401981</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8303985595538179</v>
+        <v>0.8352144929183598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>714</v>
@@ -996,19 +996,19 @@
         <v>540753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>525358</v>
+        <v>525487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>553486</v>
+        <v>554783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8517062644765167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8274577921151203</v>
+        <v>0.8276607394384861</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8717611285615426</v>
+        <v>0.8738026465664607</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>22685</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13327</v>
+        <v>12985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38126</v>
+        <v>36737</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04274883137835419</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0251150269481207</v>
+        <v>0.02447079127911825</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07184805026645313</v>
+        <v>0.06922981215534375</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1121,19 +1121,19 @@
         <v>30170</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22055</v>
+        <v>21969</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40045</v>
+        <v>40061</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05520687119867623</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04035701250867461</v>
+        <v>0.04020018388028208</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07327547125851767</v>
+        <v>0.07330603410876385</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1142,19 +1142,19 @@
         <v>52855</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40411</v>
+        <v>41031</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>71266</v>
+        <v>71232</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04906949515362999</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03751687712271273</v>
+        <v>0.03809274245685255</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06616174826098492</v>
+        <v>0.06613104316225484</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>33578</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22917</v>
+        <v>22897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47973</v>
+        <v>48753</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06327767576327557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04318733747418682</v>
+        <v>0.04314986068995012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09040409502238625</v>
+        <v>0.09187386444825839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1192,19 +1192,19 @@
         <v>50699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40484</v>
+        <v>39644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63616</v>
+        <v>64526</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09277115398162532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07407896986973553</v>
+        <v>0.07254261478846555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1164081975664172</v>
+        <v>0.1180721993597954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -1213,19 +1213,19 @@
         <v>84277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68102</v>
+        <v>68981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102530</v>
+        <v>103617</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07824137487407117</v>
+        <v>0.07824137487407115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0632245961692004</v>
+        <v>0.06404101456371337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09518710983843462</v>
+        <v>0.09619593429355786</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>79818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61199</v>
+        <v>61537</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99975</v>
+        <v>100397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1504172131358875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1153287586391808</v>
+        <v>0.1159663144078309</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1884016708123454</v>
+        <v>0.1891967793441935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -1263,19 +1263,19 @@
         <v>104418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>89472</v>
+        <v>90777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119985</v>
+        <v>121242</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.191068250894548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.163719290680654</v>
+        <v>0.1661082496071518</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2195532271693718</v>
+        <v>0.2218545838641583</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>218</v>
@@ -1284,19 +1284,19 @@
         <v>184236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>163091</v>
+        <v>159906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>211504</v>
+        <v>207592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1710417692855156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1514106255793221</v>
+        <v>0.1484541544768729</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.196356569450424</v>
+        <v>0.1927246201813552</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>394566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>369816</v>
+        <v>368303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>417705</v>
+        <v>415858</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7435562797224827</v>
+        <v>0.7435562797224826</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6969161345085377</v>
+        <v>0.694064085475488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7871608092543041</v>
+        <v>0.7836809232865578</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>448</v>
@@ -1334,19 +1334,19 @@
         <v>361207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>342104</v>
+        <v>340787</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>379570</v>
+        <v>378731</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6609537239251504</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.62599702703902</v>
+        <v>0.6235879907721068</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.694554028211245</v>
+        <v>0.6930190514274036</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>721</v>
@@ -1355,19 +1355,19 @@
         <v>755773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>727028</v>
+        <v>725588</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>786515</v>
+        <v>785938</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7016473606867834</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6749605328140423</v>
+        <v>0.6736237302904204</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7301877209332507</v>
+        <v>0.7296517499876064</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>27167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19705</v>
+        <v>18682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37623</v>
+        <v>37756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08624420211033804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06255300378750595</v>
+        <v>0.05930765860568384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1194343426749625</v>
+        <v>0.1198573272109157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -1480,19 +1480,19 @@
         <v>35125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27512</v>
+        <v>27167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45538</v>
+        <v>45495</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09856115135750866</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07719954159674178</v>
+        <v>0.07622888886511019</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1277798926655585</v>
+        <v>0.1276585022012676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -1501,19 +1501,19 @@
         <v>62293</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50069</v>
+        <v>50266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75791</v>
+        <v>75668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09278220628801191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07457491385884929</v>
+        <v>0.07486816006292663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1128872188913971</v>
+        <v>0.1127046093019143</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>23661</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16206</v>
+        <v>16669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33976</v>
+        <v>33953</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07511408984637416</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05144782499982457</v>
+        <v>0.05291585514141658</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.107859209151835</v>
+        <v>0.1077863579202129</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -1551,19 +1551,19 @@
         <v>40844</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31672</v>
+        <v>32664</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51142</v>
+        <v>51576</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1146075479840398</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08887159508120743</v>
+        <v>0.0916546353537871</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1435034851662402</v>
+        <v>0.1447204260256956</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>98</v>
@@ -1572,19 +1572,19 @@
         <v>64505</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53230</v>
+        <v>51867</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>79633</v>
+        <v>77718</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09607775455857229</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07928398785129265</v>
+        <v>0.0772540672441623</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1186095857426517</v>
+        <v>0.1157574226372908</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>30083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21869</v>
+        <v>21625</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40468</v>
+        <v>39759</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09550086234380045</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06942286635177385</v>
+        <v>0.06864936544784352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1284662371551309</v>
+        <v>0.1262172863007845</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1622,19 +1622,19 @@
         <v>52118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42045</v>
+        <v>42477</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64009</v>
+        <v>63522</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1462413379244978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1179782983025356</v>
+        <v>0.1191891280882523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1796074045247879</v>
+        <v>0.1782426995094376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -1643,19 +1643,19 @@
         <v>82201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69554</v>
+        <v>69590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97979</v>
+        <v>97003</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1224345968803752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1035972201733641</v>
+        <v>0.1036505972180322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1459348741827987</v>
+        <v>0.1444810757217571</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>234094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220243</v>
+        <v>218484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>247693</v>
+        <v>247175</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7431408456994872</v>
+        <v>0.7431408456994871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6991703976317152</v>
+        <v>0.6935861942286979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.786312777349636</v>
+        <v>0.7846667228290651</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>324</v>
@@ -1693,19 +1693,19 @@
         <v>228294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213476</v>
+        <v>213165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>243366</v>
+        <v>241387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6405899627339537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.599010854759973</v>
+        <v>0.5981384929027441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6828822886250382</v>
+        <v>0.6773273563853656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>579</v>
@@ -1714,19 +1714,19 @@
         <v>462388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>440533</v>
+        <v>441858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>480772</v>
+        <v>482870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6887054422730404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6561529314322349</v>
+        <v>0.6581274886285094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.716087625285917</v>
+        <v>0.719212176103358</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>31808</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22445</v>
+        <v>21089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48176</v>
+        <v>47971</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08524218942276277</v>
+        <v>0.08524218942276279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06015218556124954</v>
+        <v>0.05651718615573448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1291071593175537</v>
+        <v>0.1285578295397094</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1839,19 +1839,19 @@
         <v>45342</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34818</v>
+        <v>35306</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57890</v>
+        <v>58692</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1074561249807783</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08251443663792825</v>
+        <v>0.08367081742452517</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1371929451289607</v>
+        <v>0.1390940575335445</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -1860,19 +1860,19 @@
         <v>77150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61922</v>
+        <v>59982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95817</v>
+        <v>95910</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09703107800181289</v>
+        <v>0.09703107800181288</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07787868225777668</v>
+        <v>0.07543876094129633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1205086478161626</v>
+        <v>0.1206255492039576</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>33054</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21239</v>
+        <v>21042</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51802</v>
+        <v>49624</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08858126003984976</v>
+        <v>0.08858126003984977</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05691789465802992</v>
+        <v>0.05638985614248974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1388252408986926</v>
+        <v>0.132987267864958</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -1910,19 +1910,19 @@
         <v>45426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34759</v>
+        <v>34748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60711</v>
+        <v>60641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1076542508883196</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08237407946610656</v>
+        <v>0.08234960002894884</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1438780253036785</v>
+        <v>0.1437117817076448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -1931,19 +1931,19 @@
         <v>78480</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61957</v>
+        <v>62442</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102049</v>
+        <v>101195</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0987032559101727</v>
+        <v>0.09870325591017266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07792314443255105</v>
+        <v>0.0785327942802313</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.128346656817238</v>
+        <v>0.1272720270332504</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>57000</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>43363</v>
+        <v>41813</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78322</v>
+        <v>75488</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1527562821980575</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.116209012898062</v>
+        <v>0.112055678033858</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2098967700602104</v>
+        <v>0.2023011047483475</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>177</v>
@@ -1981,19 +1981,19 @@
         <v>109683</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>95134</v>
+        <v>94696</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>127405</v>
+        <v>125866</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2599360334081599</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2254578975069487</v>
+        <v>0.224419226531887</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3019350124934523</v>
+        <v>0.2982881906488493</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>229</v>
@@ -2002,19 +2002,19 @@
         <v>166683</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>144424</v>
+        <v>142863</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>192098</v>
+        <v>192535</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2096363492913594</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1816407430935029</v>
+        <v>0.1796773430573579</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.241600777633356</v>
+        <v>0.2421504232737541</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>251283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>226771</v>
+        <v>229162</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>271538</v>
+        <v>273356</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6734202683393301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6077291463776502</v>
+        <v>0.6141370597063355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7277004712120922</v>
+        <v>0.7325718254721916</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>287</v>
@@ -2052,19 +2052,19 @@
         <v>221510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>201957</v>
+        <v>201175</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>240097</v>
+        <v>239002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5249535907227423</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4786161566466338</v>
+        <v>0.4767615382222819</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.56900335943184</v>
+        <v>0.5664074325926532</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>471</v>
@@ -2073,19 +2073,19 @@
         <v>472794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>444625</v>
+        <v>441754</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>503875</v>
+        <v>502204</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5946293167966551</v>
+        <v>0.594629316796655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5592010564203843</v>
+        <v>0.5555908828503019</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6337196457286597</v>
+        <v>0.6316184805334045</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>5157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2287</v>
+        <v>2103</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9706</v>
+        <v>10196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02507712466624493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0111197875149054</v>
+        <v>0.01022362751535408</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04719303963809458</v>
+        <v>0.04957809072411554</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2198,19 +2198,19 @@
         <v>10825</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7004</v>
+        <v>7557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15269</v>
+        <v>15832</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0477232875717948</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03088000165464969</v>
+        <v>0.03331654733477104</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06731544463261228</v>
+        <v>0.06979858853409887</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -2219,19 +2219,19 @@
         <v>15982</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11240</v>
+        <v>11049</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22932</v>
+        <v>21847</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03695416499263691</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02598856801059569</v>
+        <v>0.02554714549062514</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05302426677300794</v>
+        <v>0.05051545667927648</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>11150</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7143</v>
+        <v>6761</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17547</v>
+        <v>16686</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05421447482264131</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03473197853222467</v>
+        <v>0.03287384153630622</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08532031599997202</v>
+        <v>0.08112956444288739</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2269,19 +2269,19 @@
         <v>14227</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9834</v>
+        <v>10088</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19360</v>
+        <v>19372</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06272080748724472</v>
+        <v>0.06272080748724471</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04335674499781056</v>
+        <v>0.04447306567787773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08535359499109411</v>
+        <v>0.08540720781225559</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -2290,19 +2290,19 @@
         <v>25377</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19121</v>
+        <v>19553</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32565</v>
+        <v>33190</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05867571872115803</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04421169485268717</v>
+        <v>0.04520966182190969</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07529766825004647</v>
+        <v>0.07674240166228383</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>137100</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122760</v>
+        <v>123642</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149476</v>
+        <v>149515</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6666177447799707</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.596892899155958</v>
+        <v>0.6011837214583327</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7267955944638257</v>
+        <v>0.7269824591408125</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>371</v>
@@ -2340,19 +2340,19 @@
         <v>161545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>150335</v>
+        <v>150013</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171834</v>
+        <v>170947</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7122077122287052</v>
+        <v>0.712207712228705</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.662785478445338</v>
+        <v>0.6613649745547874</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7575686527779171</v>
+        <v>0.7536592089074727</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>568</v>
@@ -2361,19 +2361,19 @@
         <v>298645</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>281118</v>
+        <v>281926</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>314850</v>
+        <v>314773</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6905279270093327</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6500011494550939</v>
+        <v>0.6518706614219583</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7279977259011053</v>
+        <v>0.7278196011938408</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>52258</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>41330</v>
+        <v>41334</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>66317</v>
+        <v>66051</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2540906557311429</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2009597224638913</v>
+        <v>0.2009797155348683</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3224491491474046</v>
+        <v>0.3211604983785832</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>59</v>
@@ -2411,19 +2411,19 @@
         <v>40227</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>31658</v>
+        <v>31701</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>52574</v>
+        <v>52662</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1773481927122554</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1395725251058312</v>
+        <v>0.1397594550523844</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2317831834342876</v>
+        <v>0.2321738551952136</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>114</v>
@@ -2432,19 +2432,19 @@
         <v>92484</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>76520</v>
+        <v>77000</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>111211</v>
+        <v>110831</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2138421892768722</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1769299297215768</v>
+        <v>0.1780396378384386</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2571430309800993</v>
+        <v>0.2562639787362594</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>18229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12418</v>
+        <v>12008</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26515</v>
+        <v>26854</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06733914035458206</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04587319209152523</v>
+        <v>0.04435797478255591</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09794831504604255</v>
+        <v>0.09920026263302342</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2557,19 +2557,19 @@
         <v>22336</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16717</v>
+        <v>16159</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29612</v>
+        <v>29372</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08468525664709596</v>
+        <v>0.08468525664709592</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06338051873310049</v>
+        <v>0.06126684034828428</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1122711255861177</v>
+        <v>0.1113616227216267</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2578,19 +2578,19 @@
         <v>40565</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32102</v>
+        <v>31466</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49660</v>
+        <v>51070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0758993068681461</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06006452521180357</v>
+        <v>0.05887408297172978</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09291684254109019</v>
+        <v>0.0955542493394171</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>26265</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18612</v>
+        <v>18927</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35108</v>
+        <v>35681</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09702318261171772</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0687522773248594</v>
+        <v>0.06991672201416106</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1296909944281466</v>
+        <v>0.1318054270334</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>97</v>
@@ -2628,19 +2628,19 @@
         <v>45807</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38028</v>
+        <v>37821</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56027</v>
+        <v>55404</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1736742353752032</v>
+        <v>0.1736742353752031</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1441831922040089</v>
+        <v>0.1433972281272866</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2124239625931937</v>
+        <v>0.2100608363437119</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>138</v>
@@ -2649,19 +2649,19 @@
         <v>72071</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>60150</v>
+        <v>61270</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>85069</v>
+        <v>85583</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.134849850208694</v>
+        <v>0.1348498502086941</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1125437954182714</v>
+        <v>0.1146394931432471</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1591693449684656</v>
+        <v>0.160129855154515</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>34724</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25593</v>
+        <v>26894</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45384</v>
+        <v>44510</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.128270827893944</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09454315232404356</v>
+        <v>0.09934720425031636</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1676493768327642</v>
+        <v>0.1644207715358476</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>86</v>
@@ -2699,19 +2699,19 @@
         <v>39725</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32404</v>
+        <v>32049</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>48074</v>
+        <v>48369</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1506152981151708</v>
+        <v>0.1506152981151707</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1228570781937668</v>
+        <v>0.1215143378259795</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1822718497051958</v>
+        <v>0.1833904340991409</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>143</v>
@@ -2720,19 +2720,19 @@
         <v>74449</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>62031</v>
+        <v>61783</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>88135</v>
+        <v>87034</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1392976411889535</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1160643222979033</v>
+        <v>0.1155996231735229</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1649063833958257</v>
+        <v>0.1628460180184857</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>191489</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178103</v>
+        <v>178136</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>204243</v>
+        <v>203749</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7073668491397563</v>
+        <v>0.7073668491397562</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6579164939593592</v>
+        <v>0.6580391380999167</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7544786461391204</v>
+        <v>0.7526545901690759</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>232</v>
@@ -2770,19 +2770,19 @@
         <v>155883</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>143922</v>
+        <v>143313</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>167933</v>
+        <v>167529</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5910252098625303</v>
+        <v>0.5910252098625299</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5456766189708941</v>
+        <v>0.5433670942846324</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6367114000116066</v>
+        <v>0.6351819254050619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>477</v>
@@ -2791,19 +2791,19 @@
         <v>347372</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>329691</v>
+        <v>329133</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>364952</v>
+        <v>366497</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6499532017342063</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6168712482687845</v>
+        <v>0.6158269688688881</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6828456901944886</v>
+        <v>0.6857376868878559</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>59331</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44758</v>
+        <v>44992</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>77686</v>
+        <v>76349</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08256470874242948</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06228476819548634</v>
+        <v>0.06261034679603529</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.108106676011666</v>
+        <v>0.106246776875545</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>127</v>
@@ -2916,19 +2916,19 @@
         <v>95573</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>81210</v>
+        <v>80321</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>113635</v>
+        <v>113494</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1237901686542177</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1051868971541093</v>
+        <v>0.1040347520708705</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.147184618241144</v>
+        <v>0.1470020781223478</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>182</v>
@@ -2937,19 +2937,19 @@
         <v>154904</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>133275</v>
+        <v>130571</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>178954</v>
+        <v>180206</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1039165613803544</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08940636576548798</v>
+        <v>0.08759282304293492</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1200497278702787</v>
+        <v>0.120889701777098</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>71276</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>56371</v>
+        <v>55537</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>90133</v>
+        <v>91480</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09918683598619878</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07844525031109274</v>
+        <v>0.07728406678437715</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.125427630750135</v>
+        <v>0.1273024234355608</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>133</v>
@@ -2987,19 +2987,19 @@
         <v>99137</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>83180</v>
+        <v>84721</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>116893</v>
+        <v>117282</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1284062320329314</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1077387035366603</v>
+        <v>0.1097346645838028</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1514043815199555</v>
+        <v>0.1519089122105131</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>196</v>
@@ -3008,19 +3008,19 @@
         <v>170413</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>148418</v>
+        <v>147363</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>196522</v>
+        <v>196313</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1143204024738489</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09956547275288392</v>
+        <v>0.09885745028530266</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1318356303190616</v>
+        <v>0.1316954023557006</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>131431</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>109368</v>
+        <v>110517</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>156867</v>
+        <v>155967</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1828975249171046</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.152195505334123</v>
+        <v>0.1537941363691557</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2182939486210557</v>
+        <v>0.217041152880605</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>188</v>
@@ -3058,19 +3058,19 @@
         <v>144212</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>124976</v>
+        <v>124952</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>165759</v>
+        <v>164909</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1867895188542425</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.161874170695284</v>
+        <v>0.1618429188512574</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2146973065455275</v>
+        <v>0.2135968078339928</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>304</v>
@@ -3079,19 +3079,19 @@
         <v>275643</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>247055</v>
+        <v>246820</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>308881</v>
+        <v>308395</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1849133006341319</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1657352181536099</v>
+        <v>0.1655771803834991</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2072102983694452</v>
+        <v>0.206884447397983</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>456566</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>428805</v>
+        <v>427065</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>487575</v>
+        <v>485999</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6353509303542672</v>
+        <v>0.6353509303542673</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5967182899765411</v>
+        <v>0.594297951704266</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6785021122733653</v>
+        <v>0.6763086072532063</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>512</v>
@@ -3129,19 +3129,19 @@
         <v>433135</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>405683</v>
+        <v>407701</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>459839</v>
+        <v>457632</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5610140804586081</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5254576433228423</v>
+        <v>0.5280706472590065</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5956025861831135</v>
+        <v>0.5927442778982271</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>876</v>
@@ -3150,19 +3150,19 @@
         <v>889701</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>851721</v>
+        <v>847659</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>931362</v>
+        <v>926570</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5968497355116648</v>
+        <v>0.5968497355116649</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5713710475066593</v>
+        <v>0.5686457032148844</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6247973067252959</v>
+        <v>0.6215831147565453</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>127170</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>107984</v>
+        <v>109963</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>149328</v>
+        <v>147363</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1593463210897653</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1353061432709231</v>
+        <v>0.1377852878680291</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1871103553957973</v>
+        <v>0.1846488652384575</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>241</v>
@@ -3275,19 +3275,19 @@
         <v>157998</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>141817</v>
+        <v>140438</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>177926</v>
+        <v>177786</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1902193854093935</v>
+        <v>0.1902193854093936</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1707386463508931</v>
+        <v>0.1690785294902513</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2142110642268691</v>
+        <v>0.2140435255131699</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>392</v>
@@ -3296,19 +3296,19 @@
         <v>285168</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>261616</v>
+        <v>259911</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>312713</v>
+        <v>314826</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1750912352397675</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1606306302292218</v>
+        <v>0.1595839355863075</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1920037558060572</v>
+        <v>0.1933011993154386</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>40776</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>30380</v>
+        <v>31125</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>53553</v>
+        <v>52774</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05109308448082777</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0380664288904832</v>
+        <v>0.03900069370841397</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06710251131127913</v>
+        <v>0.06612689581777072</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>142</v>
@@ -3346,19 +3346,19 @@
         <v>99411</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>84035</v>
+        <v>84205</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>117066</v>
+        <v>116186</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1196843716287268</v>
+        <v>0.1196843716287269</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1011723996346009</v>
+        <v>0.1013770122746898</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1409394712147873</v>
+        <v>0.139880734665328</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>193</v>
@@ -3367,19 +3367,19 @@
         <v>140187</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>122821</v>
+        <v>120402</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>162673</v>
+        <v>160874</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08607386631709037</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07541123541284991</v>
+        <v>0.07392608082883609</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09988010273808644</v>
+        <v>0.09877570573497972</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>99071</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>82141</v>
+        <v>81919</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>119099</v>
+        <v>119558</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1241383108756453</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1029242624224676</v>
+        <v>0.1026456864582994</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.149233245447796</v>
+        <v>0.1498090674725206</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>164</v>
@@ -3417,19 +3417,19 @@
         <v>122870</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>106779</v>
+        <v>105301</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>143041</v>
+        <v>142138</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1479277292165991</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.128554662220521</v>
+        <v>0.1267759060160128</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1722119485903094</v>
+        <v>0.1711252480817642</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>269</v>
@@ -3438,19 +3438,19 @@
         <v>221941</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>198184</v>
+        <v>196829</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>250007</v>
+        <v>249085</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.136270645572939</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1216839682408313</v>
+        <v>0.1208515034101902</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1535029951534609</v>
+        <v>0.1529364237029996</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>531055</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>503335</v>
+        <v>504186</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>558397</v>
+        <v>556196</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6654222835537615</v>
+        <v>0.6654222835537617</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.630688539079008</v>
+        <v>0.6317547801024064</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.699682651542283</v>
+        <v>0.6969246417463376</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>514</v>
@@ -3488,19 +3488,19 @@
         <v>450330</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>423261</v>
+        <v>423752</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>475650</v>
+        <v>474841</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5421685137452805</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5095789470757621</v>
+        <v>0.5101697642378792</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5726522107607677</v>
+        <v>0.5716783860670012</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>969</v>
@@ -3509,19 +3509,19 @@
         <v>981385</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>943225</v>
+        <v>946292</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1015753</v>
+        <v>1022723</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.6025642528702031</v>
+        <v>0.6025642528702032</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5791343773070748</v>
+        <v>0.5810171758391339</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6236658067762331</v>
+        <v>0.6279457531703858</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>292352</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>256050</v>
+        <v>257830</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>328405</v>
+        <v>324399</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08280306606750837</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07252128887678948</v>
+        <v>0.07302546495762412</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09301426404236612</v>
+        <v>0.09187985834880143</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>615</v>
@@ -3634,19 +3634,19 @@
         <v>400453</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>370467</v>
+        <v>370620</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>432396</v>
+        <v>431820</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1072412014473603</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09921093099801832</v>
+        <v>0.09925191368422001</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.115795493189505</v>
+        <v>0.115641259183286</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>937</v>
@@ -3655,19 +3655,19 @@
         <v>692806</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>648351</v>
+        <v>648478</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>741851</v>
+        <v>740806</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.09536431750406522</v>
+        <v>0.09536431750406524</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.08924519861844643</v>
+        <v>0.0892627117142159</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1021154252015032</v>
+        <v>0.1019715680959076</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>253081</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>224763</v>
+        <v>220202</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>290828</v>
+        <v>285182</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.07168031243063422</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06365982998994218</v>
+        <v>0.06236794343647275</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.08237141740192618</v>
+        <v>0.08077231453688985</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>667</v>
@@ -3705,19 +3705,19 @@
         <v>421648</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>387407</v>
+        <v>388343</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>456427</v>
+        <v>452835</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.112917128242905</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1037472927548732</v>
+        <v>0.1039980228248658</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1222309179302206</v>
+        <v>0.1212690734967657</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>940</v>
@@ -3726,19 +3726,19 @@
         <v>674729</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>630715</v>
+        <v>631251</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>719139</v>
+        <v>723886</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.09287611987705546</v>
+        <v>0.09287611987705548</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.08681756936292685</v>
+        <v>0.08689136638221429</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.0989891428743627</v>
+        <v>0.09964258445198386</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>586479</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>545311</v>
+        <v>543388</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>636538</v>
+        <v>634731</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1661087543934552</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1544486832251382</v>
+        <v>0.1539041646958808</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1802871265730293</v>
+        <v>0.1797752549061356</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1285</v>
@@ -3776,19 +3776,19 @@
         <v>768165</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>727232</v>
+        <v>726308</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>808571</v>
+        <v>808374</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2057141266702742</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1947523906327522</v>
+        <v>0.1945048048982255</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2165349494580392</v>
+        <v>0.2164822775232035</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1938</v>
@@ -3797,19 +3797,19 @@
         <v>1354644</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1296657</v>
+        <v>1291643</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1419172</v>
+        <v>1408035</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1864659965346752</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1784842014099836</v>
+        <v>0.1777939305523721</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1953483328486681</v>
+        <v>0.1938153198679874</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>2398780</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2335265</v>
+        <v>2339323</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2457973</v>
+        <v>2458271</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.6794078671084023</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6614185250456367</v>
+        <v>0.6625679175518112</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6961730754728802</v>
+        <v>0.6962574314696277</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2795</v>
@@ -3847,19 +3847,19 @@
         <v>2143871</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2087783</v>
+        <v>2098293</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2198853</v>
+        <v>2201828</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.5741275436394604</v>
+        <v>0.5741275436394603</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5591071137620498</v>
+        <v>0.5619218476837535</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5888518452903638</v>
+        <v>0.5896484173043306</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4921</v>
@@ -3868,19 +3868,19 @@
         <v>4542651</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4458849</v>
+        <v>4464855</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4619743</v>
+        <v>4625853</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.6252935660842041</v>
+        <v>0.6252935660842039</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.6137581766057214</v>
+        <v>0.6145849557046782</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6359051214955677</v>
+        <v>0.6367461588315723</v>
       </c>
     </row>
     <row r="48">
